--- a/Lipidoma/most_important_features.xlsx
+++ b/Lipidoma/most_important_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LPC 18:2_A</t>
+          <t>PC O-20:1</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LPC 20:3</t>
+          <t>LPC 18:0</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LPC 18:3</t>
+          <t>LPC 18:1_A</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LPC 14:0</t>
+          <t>LPC 16:0</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LPC 18:2_B</t>
+          <t>LPC 20:2</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PC 16:0_20:4_B</t>
+          <t>LPC 18:1_B</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LPC 15:0</t>
+          <t>LPC 19:0</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PC O-38:5</t>
+          <t>LPC 20:0</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CE 20:4</t>
+          <t>LPC 17:0</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PC O-18:1_20:4</t>
+          <t>DG 16:0_18:1</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LPC 16:1</t>
+          <t>LPC 17:1</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LPC 17:1</t>
+          <t>LPC 16:1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LPC 15:0</t>
         </is>
       </c>
     </row>
